--- a/hydrodatainfo/metadata/povodi_hydro_stations.xlsx
+++ b/hydrodatainfo/metadata/povodi_hydro_stations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="991">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="992">
   <si>
     <t>SKAL</t>
   </si>
@@ -1770,72 +1770,12 @@
     <t>Ždírec</t>
   </si>
   <si>
-    <t>Bílina (ČD)</t>
-  </si>
-  <si>
     <t>Bílina</t>
   </si>
   <si>
-    <t>Bílý Potok - Záluží</t>
-  </si>
-  <si>
-    <t>Bílý potok</t>
-  </si>
-  <si>
-    <t>Chomutov  (MÚ)</t>
-  </si>
-  <si>
-    <t>Chomutovka</t>
-  </si>
-  <si>
-    <t>Hačka  - pod odlehčením</t>
-  </si>
-  <si>
-    <t>Hačka</t>
-  </si>
-  <si>
-    <t>III. Mlýn</t>
-  </si>
-  <si>
-    <t>Janov - odtok</t>
-  </si>
-  <si>
-    <t>Loupnice</t>
-  </si>
-  <si>
-    <t>Jirkov - odtok</t>
-  </si>
-  <si>
-    <t>Klášterec nad Ohří</t>
-  </si>
-  <si>
     <t>Ohře</t>
   </si>
   <si>
-    <t>Přísečnice</t>
-  </si>
-  <si>
-    <t>Přísečnický potok</t>
-  </si>
-  <si>
-    <t>Stranná</t>
-  </si>
-  <si>
-    <t>Trmice</t>
-  </si>
-  <si>
-    <t>Všechlapy - odtok</t>
-  </si>
-  <si>
-    <t>Bouřlivec</t>
-  </si>
-  <si>
-    <t>Český Jiřetín</t>
-  </si>
-  <si>
-    <t>Flájský potok-HVT č. 152, 153, 163</t>
-  </si>
-  <si>
     <t>Újezd</t>
   </si>
   <si>
@@ -2989,6 +2929,69 @@
   </si>
   <si>
     <t>Brumovka</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>Březová</t>
+  </si>
+  <si>
+    <t>Teplá</t>
+  </si>
+  <si>
+    <t>Cheb</t>
+  </si>
+  <si>
+    <t>Citice</t>
+  </si>
+  <si>
+    <t>Drahovice</t>
+  </si>
+  <si>
+    <t>Horka</t>
+  </si>
+  <si>
+    <t>Libocký potok</t>
+  </si>
+  <si>
+    <t>Jesenice</t>
+  </si>
+  <si>
+    <t>Odrava-HVT č. 37</t>
+  </si>
+  <si>
+    <t>Jánský most</t>
+  </si>
+  <si>
+    <t>Kraslice</t>
+  </si>
+  <si>
+    <t>Svatava-HVT č. 220</t>
+  </si>
+  <si>
+    <t>Ostrov nad Ohří</t>
+  </si>
+  <si>
+    <t>Podhora</t>
+  </si>
+  <si>
+    <t>Stanovice</t>
+  </si>
+  <si>
+    <t>Lomnický potok</t>
+  </si>
+  <si>
+    <t>Stará Role</t>
+  </si>
+  <si>
+    <t>Rolava</t>
+  </si>
+  <si>
+    <t>Svatava</t>
+  </si>
+  <si>
+    <t>Teplička</t>
   </si>
 </sst>
 </file>
@@ -3330,10 +3333,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E512"/>
+  <dimension ref="A1:F513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D516" sqref="D516"/>
+    <sheetView tabSelected="1" topLeftCell="A433" workbookViewId="0">
+      <selection activeCell="F455" sqref="F455"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3343,7 +3346,7 @@
     <col min="5" max="5" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>2</v>
       </c>
@@ -3359,8 +3362,11 @@
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -3376,8 +3382,11 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3393,8 +3402,11 @@
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -3410,8 +3422,11 @@
       <c r="E4" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -3427,8 +3442,11 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -3444,8 +3462,11 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -3461,8 +3482,11 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -3478,8 +3502,11 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -3495,8 +3522,11 @@
       <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3512,8 +3542,11 @@
       <c r="E10" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -3529,8 +3562,11 @@
       <c r="E11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -3546,8 +3582,11 @@
       <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -3563,8 +3602,11 @@
       <c r="E13" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -3580,8 +3622,11 @@
       <c r="E14" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -3597,8 +3642,11 @@
       <c r="E15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -3614,8 +3662,11 @@
       <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2</v>
       </c>
@@ -3631,8 +3682,11 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -3648,8 +3702,11 @@
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
@@ -3665,8 +3722,11 @@
       <c r="E19" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -3682,8 +3742,11 @@
       <c r="E20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
@@ -3699,8 +3762,11 @@
       <c r="E21" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>2</v>
       </c>
@@ -3716,8 +3782,11 @@
       <c r="E22" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>2</v>
       </c>
@@ -3733,8 +3802,11 @@
       <c r="E23" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -3750,8 +3822,11 @@
       <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>2</v>
       </c>
@@ -3767,8 +3842,11 @@
       <c r="E25" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>2</v>
       </c>
@@ -3784,8 +3862,11 @@
       <c r="E26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>2</v>
       </c>
@@ -3801,8 +3882,11 @@
       <c r="E27" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -3818,8 +3902,11 @@
       <c r="E28" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>2</v>
       </c>
@@ -3835,8 +3922,11 @@
       <c r="E29" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>2</v>
       </c>
@@ -3852,8 +3942,11 @@
       <c r="E30" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>2</v>
       </c>
@@ -3869,8 +3962,11 @@
       <c r="E31" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -3886,8 +3982,11 @@
       <c r="E32" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>2</v>
       </c>
@@ -3903,8 +4002,11 @@
       <c r="E33" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>2</v>
       </c>
@@ -3920,8 +4022,11 @@
       <c r="E34" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
@@ -3937,8 +4042,11 @@
       <c r="E35" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -3954,8 +4062,11 @@
       <c r="E36" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
@@ -3971,8 +4082,11 @@
       <c r="E37" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -3988,8 +4102,11 @@
       <c r="E38" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -4005,8 +4122,11 @@
       <c r="E39" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -4022,8 +4142,11 @@
       <c r="E40" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>2</v>
       </c>
@@ -4039,8 +4162,11 @@
       <c r="E41" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>2</v>
       </c>
@@ -4056,8 +4182,11 @@
       <c r="E42" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>2</v>
       </c>
@@ -4073,8 +4202,11 @@
       <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -4090,8 +4222,11 @@
       <c r="E44" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -4107,8 +4242,11 @@
       <c r="E45" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>2</v>
       </c>
@@ -4124,8 +4262,11 @@
       <c r="E46" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>2</v>
       </c>
@@ -4141,8 +4282,11 @@
       <c r="E47" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -4158,8 +4302,11 @@
       <c r="E48" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>2</v>
       </c>
@@ -4175,8 +4322,11 @@
       <c r="E49" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -4192,8 +4342,11 @@
       <c r="E50" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>2</v>
       </c>
@@ -4209,8 +4362,11 @@
       <c r="E51" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -4226,8 +4382,11 @@
       <c r="E52" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
@@ -4243,8 +4402,11 @@
       <c r="E53" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>2</v>
       </c>
@@ -4260,8 +4422,11 @@
       <c r="E54" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>2</v>
       </c>
@@ -4277,8 +4442,11 @@
       <c r="E55" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -4294,8 +4462,11 @@
       <c r="E56" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>2</v>
       </c>
@@ -4311,8 +4482,11 @@
       <c r="E57" s="1" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>2</v>
       </c>
@@ -4328,8 +4502,11 @@
       <c r="E58" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>2</v>
       </c>
@@ -4345,8 +4522,11 @@
       <c r="E59" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -4362,8 +4542,11 @@
       <c r="E60" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>2</v>
       </c>
@@ -4379,8 +4562,11 @@
       <c r="E61" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>2</v>
       </c>
@@ -4396,8 +4582,11 @@
       <c r="E62" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>2</v>
       </c>
@@ -4413,8 +4602,11 @@
       <c r="E63" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -4430,8 +4622,11 @@
       <c r="E64" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>2</v>
       </c>
@@ -4447,8 +4642,11 @@
       <c r="E65" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>2</v>
       </c>
@@ -4464,8 +4662,11 @@
       <c r="E66" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>2</v>
       </c>
@@ -4481,8 +4682,11 @@
       <c r="E67" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -4498,8 +4702,11 @@
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>2</v>
       </c>
@@ -4515,8 +4722,11 @@
       <c r="E69" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>2</v>
       </c>
@@ -4532,8 +4742,11 @@
       <c r="E70" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>2</v>
       </c>
@@ -4549,8 +4762,11 @@
       <c r="E71" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -4566,8 +4782,11 @@
       <c r="E72" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>2</v>
       </c>
@@ -4583,8 +4802,11 @@
       <c r="E73" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>2</v>
       </c>
@@ -4600,8 +4822,11 @@
       <c r="E74" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -4617,8 +4842,11 @@
       <c r="E75" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>2</v>
       </c>
@@ -4634,8 +4862,11 @@
       <c r="E76" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>2</v>
       </c>
@@ -4651,8 +4882,11 @@
       <c r="E77" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>2</v>
       </c>
@@ -4668,8 +4902,11 @@
       <c r="E78" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>2</v>
       </c>
@@ -4685,8 +4922,11 @@
       <c r="E79" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>2</v>
       </c>
@@ -4702,8 +4942,11 @@
       <c r="E80" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>2</v>
       </c>
@@ -4719,8 +4962,11 @@
       <c r="E81" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>2</v>
       </c>
@@ -4736,8 +4982,11 @@
       <c r="E82" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>2</v>
       </c>
@@ -4753,8 +5002,11 @@
       <c r="E83" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>2</v>
       </c>
@@ -4770,8 +5022,11 @@
       <c r="E84" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>2</v>
       </c>
@@ -4787,8 +5042,11 @@
       <c r="E85" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>2</v>
       </c>
@@ -4804,8 +5062,11 @@
       <c r="E86" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>2</v>
       </c>
@@ -4821,8 +5082,11 @@
       <c r="E87" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>2</v>
       </c>
@@ -4838,8 +5102,11 @@
       <c r="E88" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>2</v>
       </c>
@@ -4855,8 +5122,11 @@
       <c r="E89" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>2</v>
       </c>
@@ -4872,8 +5142,11 @@
       <c r="E90" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>2</v>
       </c>
@@ -4889,8 +5162,11 @@
       <c r="E91" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>2</v>
       </c>
@@ -4906,8 +5182,11 @@
       <c r="E92" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>2</v>
       </c>
@@ -4923,8 +5202,11 @@
       <c r="E93" s="1" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>2</v>
       </c>
@@ -4940,8 +5222,11 @@
       <c r="E94" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>2</v>
       </c>
@@ -4957,8 +5242,11 @@
       <c r="E95" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -4974,8 +5262,11 @@
       <c r="E96" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>2</v>
       </c>
@@ -4991,8 +5282,11 @@
       <c r="E97" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>2</v>
       </c>
@@ -5008,8 +5302,11 @@
       <c r="E98" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>2</v>
       </c>
@@ -5025,8 +5322,11 @@
       <c r="E99" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>2</v>
       </c>
@@ -5042,8 +5342,11 @@
       <c r="E100" s="1" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>2</v>
       </c>
@@ -5059,8 +5362,11 @@
       <c r="E101" s="1" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>2</v>
       </c>
@@ -5076,8 +5382,11 @@
       <c r="E102" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>2</v>
       </c>
@@ -5093,8 +5402,11 @@
       <c r="E103" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>2</v>
       </c>
@@ -5110,8 +5422,11 @@
       <c r="E104" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>2</v>
       </c>
@@ -5127,8 +5442,11 @@
       <c r="E105" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>2</v>
       </c>
@@ -5144,8 +5462,11 @@
       <c r="E106" s="1" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>2</v>
       </c>
@@ -5161,8 +5482,11 @@
       <c r="E107" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>2</v>
       </c>
@@ -5178,8 +5502,11 @@
       <c r="E108" s="1" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>2</v>
       </c>
@@ -5195,8 +5522,11 @@
       <c r="E109" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>2</v>
       </c>
@@ -5212,8 +5542,11 @@
       <c r="E110" s="1" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>2</v>
       </c>
@@ -5229,8 +5562,11 @@
       <c r="E111" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>2</v>
       </c>
@@ -5246,8 +5582,11 @@
       <c r="E112" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>2</v>
       </c>
@@ -5263,8 +5602,11 @@
       <c r="E113" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>2</v>
       </c>
@@ -5280,8 +5622,11 @@
       <c r="E114" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>2</v>
       </c>
@@ -5297,8 +5642,11 @@
       <c r="E115" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>2</v>
       </c>
@@ -5314,8 +5662,11 @@
       <c r="E116" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>2</v>
       </c>
@@ -5331,8 +5682,11 @@
       <c r="E117" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>2</v>
       </c>
@@ -5348,8 +5702,11 @@
       <c r="E118" s="1" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>2</v>
       </c>
@@ -5365,8 +5722,11 @@
       <c r="E119" s="1" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>2</v>
       </c>
@@ -5382,8 +5742,11 @@
       <c r="E120" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>2</v>
       </c>
@@ -5399,8 +5762,11 @@
       <c r="E121" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>2</v>
       </c>
@@ -5416,8 +5782,11 @@
       <c r="E122" s="1" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>2</v>
       </c>
@@ -5433,8 +5802,11 @@
       <c r="E123" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>2</v>
       </c>
@@ -5450,8 +5822,11 @@
       <c r="E124" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>2</v>
       </c>
@@ -5467,8 +5842,11 @@
       <c r="E125" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>2</v>
       </c>
@@ -5484,8 +5862,11 @@
       <c r="E126" s="1" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>2</v>
       </c>
@@ -5501,8 +5882,11 @@
       <c r="E127" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>2</v>
       </c>
@@ -5518,8 +5902,11 @@
       <c r="E128" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>2</v>
       </c>
@@ -5535,8 +5922,11 @@
       <c r="E129" s="1" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>2</v>
       </c>
@@ -5552,8 +5942,11 @@
       <c r="E130" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>2</v>
       </c>
@@ -5569,8 +5962,11 @@
       <c r="E131" s="1" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>2</v>
       </c>
@@ -5586,8 +5982,11 @@
       <c r="E132" s="1" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>2</v>
       </c>
@@ -5603,8 +6002,11 @@
       <c r="E133" s="1" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>2</v>
       </c>
@@ -5620,8 +6022,11 @@
       <c r="E134" s="1" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>2</v>
       </c>
@@ -5637,8 +6042,11 @@
       <c r="E135" s="1" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>2</v>
       </c>
@@ -5654,8 +6062,11 @@
       <c r="E136" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>2</v>
       </c>
@@ -5671,8 +6082,11 @@
       <c r="E137" s="1" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>2</v>
       </c>
@@ -5688,8 +6102,11 @@
       <c r="E138" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>2</v>
       </c>
@@ -5705,8 +6122,11 @@
       <c r="E139" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -5722,8 +6142,11 @@
       <c r="E140" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>2</v>
       </c>
@@ -5739,8 +6162,11 @@
       <c r="E141" s="1" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>2</v>
       </c>
@@ -5756,8 +6182,11 @@
       <c r="E142" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>2</v>
       </c>
@@ -5773,8 +6202,11 @@
       <c r="E143" s="1" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>2</v>
       </c>
@@ -5790,8 +6222,11 @@
       <c r="E144" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>2</v>
       </c>
@@ -5807,8 +6242,11 @@
       <c r="E145" s="1" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>2</v>
       </c>
@@ -5824,8 +6262,11 @@
       <c r="E146" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>2</v>
       </c>
@@ -5841,8 +6282,11 @@
       <c r="E147" s="1" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>2</v>
       </c>
@@ -5858,8 +6302,11 @@
       <c r="E148" s="1" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>2</v>
       </c>
@@ -5875,8 +6322,11 @@
       <c r="E149" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>2</v>
       </c>
@@ -5892,8 +6342,11 @@
       <c r="E150" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>2</v>
       </c>
@@ -5909,8 +6362,11 @@
       <c r="E151" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>2</v>
       </c>
@@ -5926,8 +6382,11 @@
       <c r="E152" s="1" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>2</v>
       </c>
@@ -5943,8 +6402,11 @@
       <c r="E153" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>2</v>
       </c>
@@ -5960,8 +6422,11 @@
       <c r="E154" s="1" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>2</v>
       </c>
@@ -5977,8 +6442,11 @@
       <c r="E155" s="1" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>2</v>
       </c>
@@ -5994,8 +6462,11 @@
       <c r="E156" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>2</v>
       </c>
@@ -6011,8 +6482,11 @@
       <c r="E157" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>2</v>
       </c>
@@ -6028,8 +6502,11 @@
       <c r="E158" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>2</v>
       </c>
@@ -6045,8 +6522,11 @@
       <c r="E159" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>2</v>
       </c>
@@ -6062,8 +6542,11 @@
       <c r="E160" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>2</v>
       </c>
@@ -6079,8 +6562,11 @@
       <c r="E161" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>2</v>
       </c>
@@ -6096,8 +6582,11 @@
       <c r="E162" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>2</v>
       </c>
@@ -6113,8 +6602,11 @@
       <c r="E163" s="1" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>2</v>
       </c>
@@ -6130,8 +6622,11 @@
       <c r="E164" s="1" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>2</v>
       </c>
@@ -6147,8 +6642,11 @@
       <c r="E165" s="1" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>2</v>
       </c>
@@ -6164,8 +6662,11 @@
       <c r="E166" s="1" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>2</v>
       </c>
@@ -6181,8 +6682,11 @@
       <c r="E167" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>2</v>
       </c>
@@ -6198,8 +6702,11 @@
       <c r="E168" s="1" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>2</v>
       </c>
@@ -6215,8 +6722,11 @@
       <c r="E169" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>2</v>
       </c>
@@ -6232,8 +6742,11 @@
       <c r="E170" s="1" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>2</v>
       </c>
@@ -6249,8 +6762,11 @@
       <c r="E171" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>2</v>
       </c>
@@ -6266,8 +6782,11 @@
       <c r="E172" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>2</v>
       </c>
@@ -6283,8 +6802,11 @@
       <c r="E173" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>2</v>
       </c>
@@ -6300,8 +6822,11 @@
       <c r="E174" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>2</v>
       </c>
@@ -6317,8 +6842,11 @@
       <c r="E175" s="1" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>2</v>
       </c>
@@ -6334,8 +6862,11 @@
       <c r="E176" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>2</v>
       </c>
@@ -6351,8 +6882,11 @@
       <c r="E177" s="1" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>2</v>
       </c>
@@ -6368,8 +6902,11 @@
       <c r="E178" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>2</v>
       </c>
@@ -6385,8 +6922,11 @@
       <c r="E179" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>2</v>
       </c>
@@ -6402,8 +6942,11 @@
       <c r="E180" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>2</v>
       </c>
@@ -6419,8 +6962,11 @@
       <c r="E181" s="1" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>2</v>
       </c>
@@ -6436,8 +6982,11 @@
       <c r="E182" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>2</v>
       </c>
@@ -6453,8 +7002,11 @@
       <c r="E183" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>2</v>
       </c>
@@ -6470,8 +7022,11 @@
       <c r="E184" s="1" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>2</v>
       </c>
@@ -6487,8 +7042,11 @@
       <c r="E185" s="1" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>2</v>
       </c>
@@ -6504,8 +7062,11 @@
       <c r="E186" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>2</v>
       </c>
@@ -6521,8 +7082,11 @@
       <c r="E187" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>2</v>
       </c>
@@ -6538,8 +7102,11 @@
       <c r="E188" s="1" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>2</v>
       </c>
@@ -6555,8 +7122,11 @@
       <c r="E189" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>2</v>
       </c>
@@ -6572,8 +7142,11 @@
       <c r="E190" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>2</v>
       </c>
@@ -6589,8 +7162,11 @@
       <c r="E191" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>2</v>
       </c>
@@ -6606,8 +7182,11 @@
       <c r="E192" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>2</v>
       </c>
@@ -6623,8 +7202,11 @@
       <c r="E193" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>2</v>
       </c>
@@ -6640,8 +7222,11 @@
       <c r="E194" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>2</v>
       </c>
@@ -6657,8 +7242,11 @@
       <c r="E195" s="1" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>2</v>
       </c>
@@ -6674,8 +7262,11 @@
       <c r="E196" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>2</v>
       </c>
@@ -6691,8 +7282,11 @@
       <c r="E197" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>2</v>
       </c>
@@ -6708,8 +7302,11 @@
       <c r="E198" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>2</v>
       </c>
@@ -6725,8 +7322,11 @@
       <c r="E199" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>2</v>
       </c>
@@ -6742,8 +7342,11 @@
       <c r="E200" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>2</v>
       </c>
@@ -6759,8 +7362,11 @@
       <c r="E201" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>2</v>
       </c>
@@ -6776,8 +7382,11 @@
       <c r="E202" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>2</v>
       </c>
@@ -6793,8 +7402,11 @@
       <c r="E203" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>2</v>
       </c>
@@ -6810,8 +7422,11 @@
       <c r="E204" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>2</v>
       </c>
@@ -6827,8 +7442,11 @@
       <c r="E205" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>2</v>
       </c>
@@ -6844,8 +7462,11 @@
       <c r="E206" s="1" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>2</v>
       </c>
@@ -6861,8 +7482,11 @@
       <c r="E207" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>2</v>
       </c>
@@ -6878,8 +7502,11 @@
       <c r="E208" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>2</v>
       </c>
@@ -6895,8 +7522,11 @@
       <c r="E209" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>2</v>
       </c>
@@ -6912,8 +7542,11 @@
       <c r="E210" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>2</v>
       </c>
@@ -6929,8 +7562,11 @@
       <c r="E211" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>2</v>
       </c>
@@ -6946,8 +7582,11 @@
       <c r="E212" s="1" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>2</v>
       </c>
@@ -6963,8 +7602,11 @@
       <c r="E213" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>2</v>
       </c>
@@ -6980,8 +7622,11 @@
       <c r="E214" s="1" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>2</v>
       </c>
@@ -6997,8 +7642,11 @@
       <c r="E215" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>2</v>
       </c>
@@ -7014,8 +7662,11 @@
       <c r="E216" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>2</v>
       </c>
@@ -7031,8 +7682,11 @@
       <c r="E217" s="1" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>2</v>
       </c>
@@ -7048,8 +7702,11 @@
       <c r="E218" s="1" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>2</v>
       </c>
@@ -7065,8 +7722,11 @@
       <c r="E219" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>2</v>
       </c>
@@ -7082,8 +7742,11 @@
       <c r="E220" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>2</v>
       </c>
@@ -7099,8 +7762,11 @@
       <c r="E221" s="1" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>2</v>
       </c>
@@ -7116,8 +7782,11 @@
       <c r="E222" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>2</v>
       </c>
@@ -7133,8 +7802,11 @@
       <c r="E223" s="1" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>2</v>
       </c>
@@ -7150,8 +7822,11 @@
       <c r="E224" s="1" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>2</v>
       </c>
@@ -7167,8 +7842,11 @@
       <c r="E225" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>2</v>
       </c>
@@ -7184,8 +7862,11 @@
       <c r="E226" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>2</v>
       </c>
@@ -7201,8 +7882,11 @@
       <c r="E227" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>2</v>
       </c>
@@ -7218,8 +7902,11 @@
       <c r="E228" s="1" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>2</v>
       </c>
@@ -7235,8 +7922,11 @@
       <c r="E229" s="1" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>2</v>
       </c>
@@ -7252,8 +7942,11 @@
       <c r="E230" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>2</v>
       </c>
@@ -7269,8 +7962,11 @@
       <c r="E231" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>2</v>
       </c>
@@ -7286,685 +7982,787 @@
       <c r="E232" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>3</v>
       </c>
       <c r="B233" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C233" s="1">
-        <v>2473</v>
+        <v>1423</v>
       </c>
       <c r="D233" s="1" t="s">
+        <v>972</v>
+      </c>
+      <c r="E233" t="s">
+        <v>973</v>
+      </c>
+      <c r="F233" s="1">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="1">
+        <v>3</v>
+      </c>
+      <c r="B234" s="1">
+        <v>1</v>
+      </c>
+      <c r="C234" s="1">
+        <v>1404</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>974</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F234" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="1">
+        <v>3</v>
+      </c>
+      <c r="B235" s="1">
+        <v>1</v>
+      </c>
+      <c r="C235" s="1">
+        <v>1410</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F235" s="1">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="1">
+        <v>3</v>
+      </c>
+      <c r="B236" s="1">
+        <v>1</v>
+      </c>
+      <c r="C236" s="1">
+        <v>1429</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F236" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="1">
+        <v>3</v>
+      </c>
+      <c r="B237" s="1">
+        <v>1</v>
+      </c>
+      <c r="C237" s="1">
+        <v>1409</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>978</v>
+      </c>
+      <c r="F237" s="1">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="1">
+        <v>3</v>
+      </c>
+      <c r="B238" s="1">
+        <v>1</v>
+      </c>
+      <c r="C238" s="1">
+        <v>1994</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="F238" s="1">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="1">
+        <v>3</v>
+      </c>
+      <c r="B239" s="1">
+        <v>1</v>
+      </c>
+      <c r="C239" s="1">
+        <v>1427</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F239" s="1">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="1">
+        <v>3</v>
+      </c>
+      <c r="B240" s="1">
+        <v>1</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1411</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F240" s="1">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="1">
+        <v>3</v>
+      </c>
+      <c r="B241" s="1">
+        <v>1</v>
+      </c>
+      <c r="C241" s="1">
+        <v>1430</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F241" s="1">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="1">
+        <v>3</v>
+      </c>
+      <c r="B242" s="1">
+        <v>1</v>
+      </c>
+      <c r="C242" s="1">
+        <v>1419</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F242" s="1">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="1">
+        <v>3</v>
+      </c>
+      <c r="B243" s="1">
+        <v>1</v>
+      </c>
+      <c r="C243" s="1">
+        <v>1426</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="F243" s="1">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="1">
+        <v>3</v>
+      </c>
+      <c r="B244" s="1">
+        <v>1</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1417</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="F244" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="1">
+        <v>3</v>
+      </c>
+      <c r="B245" s="1">
+        <v>1</v>
+      </c>
+      <c r="C245" s="1">
+        <v>1414</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="F245" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="1">
+        <v>3</v>
+      </c>
+      <c r="B246" s="1">
+        <v>1</v>
+      </c>
+      <c r="C246" s="1">
+        <v>1422</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="F246" s="1">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="1">
+        <v>3</v>
+      </c>
+      <c r="B247" s="1">
+        <v>2</v>
+      </c>
+      <c r="C247" s="1">
+        <v>2414</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="E247" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="E233" s="1" t="s">
+      <c r="F247" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="1">
+        <v>3</v>
+      </c>
+      <c r="B248" s="1">
+        <v>3</v>
+      </c>
+      <c r="C248" s="1">
+        <v>3477</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="E248" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <v>3</v>
-      </c>
-      <c r="B234" s="1">
-        <v>2</v>
-      </c>
-      <c r="C234" s="1">
-        <v>2449</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <v>3</v>
-      </c>
-      <c r="B235" s="1">
-        <v>2</v>
-      </c>
-      <c r="C235" s="1">
-        <v>2475</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="F248" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="1">
+        <v>3</v>
+      </c>
+      <c r="B249" s="1">
+        <v>3</v>
+      </c>
+      <c r="C249" s="1">
+        <v>3104</v>
+      </c>
+      <c r="D249" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="E235" s="1" t="s">
+      <c r="E249" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F249" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="1">
+        <v>3</v>
+      </c>
+      <c r="B250" s="1">
+        <v>3</v>
+      </c>
+      <c r="C250" s="1">
+        <v>3410</v>
+      </c>
+      <c r="D250" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <v>3</v>
-      </c>
-      <c r="B236" s="1">
-        <v>2</v>
-      </c>
-      <c r="C236" s="1">
-        <v>2407</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="E250" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="E236" s="1" t="s">
+      <c r="F250" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="1">
+        <v>3</v>
+      </c>
+      <c r="B251" s="1">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1">
+        <v>3403</v>
+      </c>
+      <c r="D251" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <v>3</v>
-      </c>
-      <c r="B237" s="1">
-        <v>2</v>
-      </c>
-      <c r="C237" s="1">
-        <v>2439</v>
-      </c>
-      <c r="D237" s="1" t="s">
+      <c r="E251" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F251" s="1">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="1">
+        <v>3</v>
+      </c>
+      <c r="B252" s="1">
+        <v>3</v>
+      </c>
+      <c r="C252" s="1">
+        <v>3412</v>
+      </c>
+      <c r="D252" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E237" s="1" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <v>3</v>
-      </c>
-      <c r="B238" s="1">
-        <v>2</v>
-      </c>
-      <c r="C238" s="1">
-        <v>2446</v>
-      </c>
-      <c r="D238" s="1" t="s">
+      <c r="E252" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="E238" s="1" t="s">
+      <c r="F252" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="1">
+        <v>3</v>
+      </c>
+      <c r="B253" s="1">
+        <v>3</v>
+      </c>
+      <c r="C253" s="1">
+        <v>3432</v>
+      </c>
+      <c r="D253" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <v>3</v>
-      </c>
-      <c r="B239" s="1">
-        <v>2</v>
-      </c>
-      <c r="C239" s="1">
-        <v>2443</v>
-      </c>
-      <c r="D239" s="1" t="s">
+      <c r="E253" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="E239" s="1" t="s">
+      <c r="F253" s="1">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="1">
+        <v>3</v>
+      </c>
+      <c r="B254" s="1">
+        <v>3</v>
+      </c>
+      <c r="C254" s="1">
+        <v>3402</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="E254" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <v>3</v>
-      </c>
-      <c r="B240" s="1">
-        <v>2</v>
-      </c>
-      <c r="C240" s="1">
-        <v>2401</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="E240" s="1" t="s">
+      <c r="F254" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="1">
+        <v>3</v>
+      </c>
+      <c r="B255" s="1">
+        <v>3</v>
+      </c>
+      <c r="C255" s="1">
+        <v>3408</v>
+      </c>
+      <c r="D255" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <v>3</v>
-      </c>
-      <c r="B241" s="1">
-        <v>2</v>
-      </c>
-      <c r="C241" s="1">
-        <v>2433</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="E255" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F255" s="1">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="1">
+        <v>3</v>
+      </c>
+      <c r="B256" s="1">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1">
+        <v>3426</v>
+      </c>
+      <c r="D256" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="E241" s="1" t="s">
+      <c r="E256" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <v>3</v>
-      </c>
-      <c r="B242" s="1">
-        <v>2</v>
-      </c>
-      <c r="C242" s="1">
-        <v>2404</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="F256" s="1">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="1">
+        <v>3</v>
+      </c>
+      <c r="B257" s="1">
+        <v>3</v>
+      </c>
+      <c r="C257" s="1">
+        <v>3422</v>
+      </c>
+      <c r="D257" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="E242" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <v>3</v>
-      </c>
-      <c r="B243" s="1">
-        <v>2</v>
-      </c>
-      <c r="C243" s="1">
-        <v>2424</v>
-      </c>
-      <c r="D243" s="1" t="s">
+      <c r="E257" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F257" s="1">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="1">
+        <v>3</v>
+      </c>
+      <c r="B258" s="1">
+        <v>3</v>
+      </c>
+      <c r="C258" s="1">
+        <v>3407</v>
+      </c>
+      <c r="D258" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="E243" s="1" t="s">
+      <c r="E258" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F258" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="1">
+        <v>3</v>
+      </c>
+      <c r="B259" s="1">
+        <v>3</v>
+      </c>
+      <c r="C259" s="1">
+        <v>3424</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="F259" s="1">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="1">
+        <v>3</v>
+      </c>
+      <c r="B260" s="1">
+        <v>3</v>
+      </c>
+      <c r="C260" s="1">
+        <v>3431</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F260" s="1">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="1">
+        <v>3</v>
+      </c>
+      <c r="B261" s="1">
+        <v>3</v>
+      </c>
+      <c r="C261" s="1">
+        <v>3425</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F261" s="1">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="1">
+        <v>3</v>
+      </c>
+      <c r="B262" s="1">
+        <v>3</v>
+      </c>
+      <c r="C262" s="1">
+        <v>3428</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F262" s="1">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="1">
+        <v>3</v>
+      </c>
+      <c r="B263" s="1">
+        <v>3</v>
+      </c>
+      <c r="C263" s="1">
+        <v>3421</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F263" s="1">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="1">
+        <v>3</v>
+      </c>
+      <c r="B264" s="1">
+        <v>3</v>
+      </c>
+      <c r="C264" s="1">
+        <v>3401</v>
+      </c>
+      <c r="D264" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="E264" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <v>3</v>
-      </c>
-      <c r="B244" s="1">
-        <v>2</v>
-      </c>
-      <c r="C244" s="1">
-        <v>2423</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <v>3</v>
-      </c>
-      <c r="B245" s="1">
-        <v>2</v>
-      </c>
-      <c r="C245" s="1">
-        <v>2448</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <v>3</v>
-      </c>
-      <c r="B246" s="1">
-        <v>2</v>
-      </c>
-      <c r="C246" s="1">
-        <v>2414</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <v>3</v>
-      </c>
-      <c r="B247" s="1">
-        <v>3</v>
-      </c>
-      <c r="C247" s="1">
-        <v>3477</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>607</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <v>3</v>
-      </c>
-      <c r="B248" s="1">
-        <v>3</v>
-      </c>
-      <c r="C248" s="1">
-        <v>3104</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>608</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <v>3</v>
-      </c>
-      <c r="B249" s="1">
-        <v>3</v>
-      </c>
-      <c r="C249" s="1">
-        <v>3410</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>609</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <v>3</v>
-      </c>
-      <c r="B250" s="1">
-        <v>3</v>
-      </c>
-      <c r="C250" s="1">
-        <v>3403</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <v>3</v>
-      </c>
-      <c r="B251" s="1">
-        <v>3</v>
-      </c>
-      <c r="C251" s="1">
-        <v>3412</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>612</v>
-      </c>
-      <c r="E251" s="1" t="s">
+      <c r="F264" s="1">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="1">
+        <v>3</v>
+      </c>
+      <c r="B265" s="1">
+        <v>3</v>
+      </c>
+      <c r="C265" s="1">
+        <v>3409</v>
+      </c>
+      <c r="D265" s="1" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <v>3</v>
-      </c>
-      <c r="B252" s="1">
-        <v>3</v>
-      </c>
-      <c r="C252" s="1">
-        <v>3432</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="E265" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F265" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="1">
+        <v>4</v>
+      </c>
+      <c r="B266" s="1">
+        <v>1</v>
+      </c>
+      <c r="C266" s="1">
+        <v>226</v>
+      </c>
+      <c r="D266" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E252" s="1" t="s">
+      <c r="E266" s="1" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <v>3</v>
-      </c>
-      <c r="B253" s="1">
-        <v>3</v>
-      </c>
-      <c r="C253" s="1">
-        <v>3402</v>
-      </c>
-      <c r="D253" s="1" t="s">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="1">
+        <v>4</v>
+      </c>
+      <c r="B267" s="1">
+        <v>1</v>
+      </c>
+      <c r="C267" s="1">
+        <v>15</v>
+      </c>
+      <c r="D267" s="1" t="s">
         <v>616</v>
       </c>
-      <c r="E253" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <v>3</v>
-      </c>
-      <c r="B254" s="1">
-        <v>3</v>
-      </c>
-      <c r="C254" s="1">
-        <v>3408</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="E267" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="E254" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <v>3</v>
-      </c>
-      <c r="B255" s="1">
-        <v>3</v>
-      </c>
-      <c r="C255" s="1">
-        <v>3426</v>
-      </c>
-      <c r="D255" s="1" t="s">
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="1">
+        <v>4</v>
+      </c>
+      <c r="B268" s="1">
+        <v>1</v>
+      </c>
+      <c r="C268" s="1">
+        <v>281</v>
+      </c>
+      <c r="D268" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E255" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <v>3</v>
-      </c>
-      <c r="B256" s="1">
-        <v>3</v>
-      </c>
-      <c r="C256" s="1">
-        <v>3422</v>
-      </c>
-      <c r="D256" s="1" t="s">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="1">
+        <v>4</v>
+      </c>
+      <c r="B269" s="1">
+        <v>1</v>
+      </c>
+      <c r="C269" s="1">
+        <v>170</v>
+      </c>
+      <c r="D269" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="E256" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <v>3</v>
-      </c>
-      <c r="B257" s="1">
-        <v>3</v>
-      </c>
-      <c r="C257" s="1">
-        <v>3407</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="E269" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="E257" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <v>3</v>
-      </c>
-      <c r="B258" s="1">
-        <v>3</v>
-      </c>
-      <c r="C258" s="1">
-        <v>3424</v>
-      </c>
-      <c r="D258" s="1" t="s">
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="1">
+        <v>4</v>
+      </c>
+      <c r="B270" s="1">
+        <v>1</v>
+      </c>
+      <c r="C270" s="1">
+        <v>2</v>
+      </c>
+      <c r="D270" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E258" s="1" t="s">
+      <c r="E270" s="1" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <v>3</v>
-      </c>
-      <c r="B259" s="1">
-        <v>3</v>
-      </c>
-      <c r="C259" s="1">
-        <v>3431</v>
-      </c>
-      <c r="D259" s="1" t="s">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="1">
+        <v>4</v>
+      </c>
+      <c r="B271" s="1">
+        <v>1</v>
+      </c>
+      <c r="C271" s="1">
+        <v>171</v>
+      </c>
+      <c r="D271" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="E259" s="1" t="s">
+      <c r="E271" s="1" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <v>3</v>
-      </c>
-      <c r="B260" s="1">
-        <v>3</v>
-      </c>
-      <c r="C260" s="1">
-        <v>3425</v>
-      </c>
-      <c r="D260" s="1" t="s">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="1">
+        <v>4</v>
+      </c>
+      <c r="B272" s="1">
+        <v>1</v>
+      </c>
+      <c r="C272" s="1">
+        <v>228</v>
+      </c>
+      <c r="D272" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E260" s="1" t="s">
+      <c r="E272" s="1" t="s">
         <v>627</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <v>3</v>
-      </c>
-      <c r="B261" s="1">
-        <v>3</v>
-      </c>
-      <c r="C261" s="1">
-        <v>3428</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>628</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <v>3</v>
-      </c>
-      <c r="B262" s="1">
-        <v>3</v>
-      </c>
-      <c r="C262" s="1">
-        <v>3421</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="E262" s="1" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <v>3</v>
-      </c>
-      <c r="B263" s="1">
-        <v>3</v>
-      </c>
-      <c r="C263" s="1">
-        <v>3401</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="E263" s="1" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <v>3</v>
-      </c>
-      <c r="B264" s="1">
-        <v>3</v>
-      </c>
-      <c r="C264" s="1">
-        <v>3409</v>
-      </c>
-      <c r="D264" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="E264" s="1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <v>4</v>
-      </c>
-      <c r="B265" s="1">
-        <v>1</v>
-      </c>
-      <c r="C265" s="1">
-        <v>226</v>
-      </c>
-      <c r="D265" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="E265" s="1" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <v>4</v>
-      </c>
-      <c r="B266" s="1">
-        <v>1</v>
-      </c>
-      <c r="C266" s="1">
-        <v>15</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>636</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <v>4</v>
-      </c>
-      <c r="B267" s="1">
-        <v>1</v>
-      </c>
-      <c r="C267" s="1">
-        <v>281</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <v>4</v>
-      </c>
-      <c r="B268" s="1">
-        <v>1</v>
-      </c>
-      <c r="C268" s="1">
-        <v>170</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>640</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <v>4</v>
-      </c>
-      <c r="B269" s="1">
-        <v>1</v>
-      </c>
-      <c r="C269" s="1">
-        <v>2</v>
-      </c>
-      <c r="D269" s="1" t="s">
-        <v>642</v>
-      </c>
-      <c r="E269" s="1" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <v>4</v>
-      </c>
-      <c r="B270" s="1">
-        <v>1</v>
-      </c>
-      <c r="C270" s="1">
-        <v>171</v>
-      </c>
-      <c r="D270" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="E270" s="1" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <v>4</v>
-      </c>
-      <c r="B271" s="1">
-        <v>1</v>
-      </c>
-      <c r="C271" s="1">
-        <v>228</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="E271" s="1" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <v>4</v>
-      </c>
-      <c r="B272" s="1">
-        <v>1</v>
-      </c>
-      <c r="C272" s="1">
-        <v>149</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="E272" s="1" t="s">
-        <v>649</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
@@ -7975,13 +8773,13 @@
         <v>1</v>
       </c>
       <c r="C273" s="1">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>650</v>
+        <v>628</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>649</v>
+        <v>629</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -7992,13 +8790,13 @@
         <v>1</v>
       </c>
       <c r="C274" s="1">
-        <v>201</v>
+        <v>172</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>651</v>
+        <v>630</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.25">
@@ -8009,13 +8807,13 @@
         <v>1</v>
       </c>
       <c r="C275" s="1">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>651</v>
+        <v>631</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
@@ -8026,13 +8824,13 @@
         <v>1</v>
       </c>
       <c r="C276" s="1">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>653</v>
+        <v>631</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
@@ -8043,13 +8841,13 @@
         <v>1</v>
       </c>
       <c r="C277" s="1">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>655</v>
+        <v>633</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>656</v>
+        <v>634</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.25">
@@ -8060,13 +8858,13 @@
         <v>1</v>
       </c>
       <c r="C278" s="1">
-        <v>50</v>
+        <v>87</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>657</v>
+        <v>635</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.25">
@@ -8077,13 +8875,13 @@
         <v>1</v>
       </c>
       <c r="C279" s="1">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>657</v>
+        <v>637</v>
       </c>
       <c r="E279" s="1" t="s">
-        <v>656</v>
+        <v>615</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.25">
@@ -8094,13 +8892,13 @@
         <v>1</v>
       </c>
       <c r="C280" s="1">
-        <v>3</v>
+        <v>88</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="E280" s="1" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
@@ -8111,13 +8909,13 @@
         <v>1</v>
       </c>
       <c r="C281" s="1">
-        <v>177</v>
+        <v>3</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="E281" s="1" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -8128,13 +8926,13 @@
         <v>1</v>
       </c>
       <c r="C282" s="1">
-        <v>18</v>
+        <v>177</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,13 +8943,13 @@
         <v>1</v>
       </c>
       <c r="C283" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>662</v>
+        <v>640</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>661</v>
+        <v>641</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
@@ -8162,13 +8960,13 @@
         <v>1</v>
       </c>
       <c r="C284" s="1">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>663</v>
+        <v>642</v>
       </c>
       <c r="E284" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -8179,13 +8977,13 @@
         <v>1</v>
       </c>
       <c r="C285" s="1">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>664</v>
+        <v>643</v>
       </c>
       <c r="E285" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.25">
@@ -8196,13 +8994,13 @@
         <v>1</v>
       </c>
       <c r="C286" s="1">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>665</v>
+        <v>644</v>
       </c>
       <c r="E286" s="1" t="s">
-        <v>666</v>
+        <v>615</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
@@ -8213,13 +9011,13 @@
         <v>1</v>
       </c>
       <c r="C287" s="1">
-        <v>56</v>
+        <v>160</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>667</v>
+        <v>645</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>635</v>
+        <v>646</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
@@ -8230,13 +9028,13 @@
         <v>1</v>
       </c>
       <c r="C288" s="1">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>668</v>
+        <v>647</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>661</v>
+        <v>615</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
@@ -8247,13 +9045,13 @@
         <v>1</v>
       </c>
       <c r="C289" s="1">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>669</v>
+        <v>648</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.25">
@@ -8264,13 +9062,13 @@
         <v>1</v>
       </c>
       <c r="C290" s="1">
-        <v>141</v>
+        <v>90</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>670</v>
+        <v>649</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>671</v>
+        <v>636</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.25">
@@ -8281,13 +9079,13 @@
         <v>1</v>
       </c>
       <c r="C291" s="1">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>672</v>
+        <v>650</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>637</v>
+        <v>651</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.25">
@@ -8298,13 +9096,13 @@
         <v>1</v>
       </c>
       <c r="C292" s="1">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>673</v>
+        <v>652</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>661</v>
+        <v>617</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.25">
@@ -8315,13 +9113,13 @@
         <v>1</v>
       </c>
       <c r="C293" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>674</v>
+        <v>653</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
@@ -8332,13 +9130,13 @@
         <v>1</v>
       </c>
       <c r="C294" s="1">
-        <v>267</v>
+        <v>9</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>675</v>
+        <v>654</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>661</v>
+        <v>619</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.25">
@@ -8349,13 +9147,13 @@
         <v>1</v>
       </c>
       <c r="C295" s="1">
-        <v>142</v>
+        <v>267</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>676</v>
+        <v>655</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>671</v>
+        <v>641</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.25">
@@ -8366,13 +9164,13 @@
         <v>1</v>
       </c>
       <c r="C296" s="1">
-        <v>269</v>
+        <v>142</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>677</v>
+        <v>656</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>678</v>
+        <v>651</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
@@ -8383,13 +9181,13 @@
         <v>1</v>
       </c>
       <c r="C297" s="1">
-        <v>169</v>
+        <v>269</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>679</v>
+        <v>657</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>647</v>
+        <v>658</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
@@ -8400,13 +9198,13 @@
         <v>1</v>
       </c>
       <c r="C298" s="1">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>680</v>
+        <v>659</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>681</v>
+        <v>627</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
@@ -8417,13 +9215,13 @@
         <v>1</v>
       </c>
       <c r="C299" s="1">
-        <v>117</v>
+        <v>7</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>682</v>
+        <v>660</v>
       </c>
       <c r="E299" s="1" t="s">
-        <v>683</v>
+        <v>661</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
@@ -8434,13 +9232,13 @@
         <v>1</v>
       </c>
       <c r="C300" s="1">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>684</v>
+        <v>662</v>
       </c>
       <c r="E300" s="1" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
@@ -8451,13 +9249,13 @@
         <v>1</v>
       </c>
       <c r="C301" s="1">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>686</v>
+        <v>664</v>
       </c>
       <c r="E301" s="1" t="s">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.25">
@@ -8468,13 +9266,13 @@
         <v>1</v>
       </c>
       <c r="C302" s="1">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="E302" s="1" t="s">
-        <v>649</v>
+        <v>619</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,13 +9283,13 @@
         <v>1</v>
       </c>
       <c r="C303" s="1">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>688</v>
+        <v>667</v>
       </c>
       <c r="E303" s="1" t="s">
-        <v>689</v>
+        <v>629</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
@@ -8502,13 +9300,13 @@
         <v>1</v>
       </c>
       <c r="C304" s="1">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>690</v>
+        <v>668</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>691</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.25">
@@ -8519,13 +9317,13 @@
         <v>1</v>
       </c>
       <c r="C305" s="1">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>692</v>
+        <v>670</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>635</v>
+        <v>671</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.25">
@@ -8536,13 +9334,13 @@
         <v>1</v>
       </c>
       <c r="C306" s="1">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>693</v>
+        <v>672</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>654</v>
+        <v>615</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.25">
@@ -8553,13 +9351,13 @@
         <v>1</v>
       </c>
       <c r="C307" s="1">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>694</v>
+        <v>673</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>695</v>
+        <v>634</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.25">
@@ -8570,13 +9368,13 @@
         <v>1</v>
       </c>
       <c r="C308" s="1">
-        <v>92</v>
+        <v>25</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>697</v>
+        <v>675</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.25">
@@ -8587,13 +9385,13 @@
         <v>1</v>
       </c>
       <c r="C309" s="1">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>698</v>
+        <v>676</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.25">
@@ -8604,13 +9402,13 @@
         <v>1</v>
       </c>
       <c r="C310" s="1">
-        <v>151</v>
+        <v>227</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>699</v>
+        <v>678</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.25">
@@ -8621,13 +9419,13 @@
         <v>1</v>
       </c>
       <c r="C311" s="1">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>700</v>
+        <v>679</v>
       </c>
       <c r="E311" s="1" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.25">
@@ -8638,13 +9436,13 @@
         <v>1</v>
       </c>
       <c r="C312" s="1">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>701</v>
+        <v>680</v>
       </c>
       <c r="E312" s="1" t="s">
-        <v>702</v>
+        <v>617</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.25">
@@ -8652,16 +9450,16 @@
         <v>4</v>
       </c>
       <c r="B313" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C313" s="1">
-        <v>268</v>
+        <v>116</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>703</v>
+        <v>681</v>
       </c>
       <c r="E313" s="1" t="s">
-        <v>704</v>
+        <v>682</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
@@ -8672,13 +9470,13 @@
         <v>2</v>
       </c>
       <c r="C314" s="1">
-        <v>85</v>
+        <v>268</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>705</v>
+        <v>683</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>706</v>
+        <v>684</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -8689,13 +9487,13 @@
         <v>2</v>
       </c>
       <c r="C315" s="1">
-        <v>143</v>
+        <v>85</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>707</v>
+        <v>685</v>
       </c>
       <c r="E315" s="1" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.25">
@@ -8706,13 +9504,13 @@
         <v>2</v>
       </c>
       <c r="C316" s="1">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>709</v>
+        <v>687</v>
       </c>
       <c r="E316" s="1" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
@@ -8723,13 +9521,13 @@
         <v>2</v>
       </c>
       <c r="C317" s="1">
-        <v>222</v>
+        <v>86</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>710</v>
+        <v>689</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>708</v>
+        <v>686</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
@@ -8740,13 +9538,13 @@
         <v>2</v>
       </c>
       <c r="C318" s="1">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>711</v>
+        <v>690</v>
       </c>
       <c r="E318" s="1" t="s">
-        <v>712</v>
+        <v>688</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.25">
@@ -8757,13 +9555,13 @@
         <v>2</v>
       </c>
       <c r="C319" s="1">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>713</v>
+        <v>691</v>
       </c>
       <c r="E319" s="1" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.25">
@@ -8774,13 +9572,13 @@
         <v>2</v>
       </c>
       <c r="C320" s="1">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.25">
@@ -8791,13 +9589,13 @@
         <v>2</v>
       </c>
       <c r="C321" s="1">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>716</v>
+        <v>695</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
@@ -8808,13 +9606,13 @@
         <v>2</v>
       </c>
       <c r="C322" s="1">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>717</v>
+        <v>696</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>706</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -8825,13 +9623,13 @@
         <v>2</v>
       </c>
       <c r="C323" s="1">
-        <v>273</v>
+        <v>163</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>718</v>
+        <v>697</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>719</v>
+        <v>686</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -8842,13 +9640,13 @@
         <v>2</v>
       </c>
       <c r="C324" s="1">
-        <v>176</v>
+        <v>273</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>720</v>
+        <v>698</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -8859,13 +9657,13 @@
         <v>2</v>
       </c>
       <c r="C325" s="1">
-        <v>12</v>
+        <v>176</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -8876,13 +9674,13 @@
         <v>2</v>
       </c>
       <c r="C326" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>723</v>
+        <v>702</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>712</v>
+        <v>692</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -8893,13 +9691,13 @@
         <v>2</v>
       </c>
       <c r="C327" s="1">
-        <v>270</v>
+        <v>13</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>724</v>
+        <v>703</v>
       </c>
       <c r="E327" s="1" t="s">
-        <v>725</v>
+        <v>692</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
@@ -8910,13 +9708,13 @@
         <v>2</v>
       </c>
       <c r="C328" s="1">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>726</v>
+        <v>704</v>
       </c>
       <c r="E328" s="1" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.25">
@@ -8927,13 +9725,13 @@
         <v>2</v>
       </c>
       <c r="C329" s="1">
-        <v>23</v>
+        <v>159</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>727</v>
+        <v>706</v>
       </c>
       <c r="E329" s="1" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -8944,13 +9742,13 @@
         <v>2</v>
       </c>
       <c r="C330" s="1">
-        <v>174</v>
+        <v>23</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>728</v>
+        <v>707</v>
       </c>
       <c r="E330" s="1" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.25">
@@ -8961,13 +9759,13 @@
         <v>2</v>
       </c>
       <c r="C331" s="1">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>729</v>
+        <v>708</v>
       </c>
       <c r="E331" s="1" t="s">
-        <v>708</v>
+        <v>692</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.25">
@@ -8978,13 +9776,13 @@
         <v>2</v>
       </c>
       <c r="C332" s="1">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>730</v>
+        <v>709</v>
       </c>
       <c r="E332" s="1" t="s">
-        <v>704</v>
+        <v>688</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.25">
@@ -8995,13 +9793,13 @@
         <v>2</v>
       </c>
       <c r="C333" s="1">
-        <v>14</v>
+        <v>175</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="E333" s="1" t="s">
-        <v>712</v>
+        <v>684</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.25">
@@ -9012,13 +9810,13 @@
         <v>2</v>
       </c>
       <c r="C334" s="1">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>731</v>
+        <v>670</v>
       </c>
       <c r="E334" s="1" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.25">
@@ -9029,13 +9827,13 @@
         <v>2</v>
       </c>
       <c r="C335" s="1">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>732</v>
+        <v>711</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>719</v>
+        <v>694</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.25">
@@ -9046,13 +9844,13 @@
         <v>2</v>
       </c>
       <c r="C336" s="1">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>721</v>
+        <v>699</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.25">
@@ -9063,13 +9861,13 @@
         <v>2</v>
       </c>
       <c r="C337" s="1">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>734</v>
+        <v>701</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.25">
@@ -9080,13 +9878,13 @@
         <v>2</v>
       </c>
       <c r="C338" s="1">
-        <v>24</v>
+        <v>224</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.25">
@@ -9094,16 +9892,16 @@
         <v>4</v>
       </c>
       <c r="B339" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C339" s="1">
-        <v>1026</v>
+        <v>24</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>736</v>
+        <v>715</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>737</v>
+        <v>684</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.25">
@@ -9114,13 +9912,13 @@
         <v>3</v>
       </c>
       <c r="C340" s="1">
-        <v>119</v>
+        <v>1026</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>738</v>
+        <v>716</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>739</v>
+        <v>717</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -9131,13 +9929,13 @@
         <v>3</v>
       </c>
       <c r="C341" s="1">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -9148,13 +9946,13 @@
         <v>3</v>
       </c>
       <c r="C342" s="1">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>737</v>
+        <v>721</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -9165,13 +9963,13 @@
         <v>3</v>
       </c>
       <c r="C343" s="1">
-        <v>161</v>
+        <v>28</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>743</v>
+        <v>722</v>
       </c>
       <c r="E343" s="1" t="s">
-        <v>744</v>
+        <v>717</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
@@ -9182,13 +9980,13 @@
         <v>3</v>
       </c>
       <c r="C344" s="1">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="E344" s="1" t="s">
-        <v>745</v>
+        <v>724</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.25">
@@ -9199,13 +9997,13 @@
         <v>3</v>
       </c>
       <c r="C345" s="1">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>746</v>
+        <v>725</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.25">
@@ -9216,13 +10014,13 @@
         <v>3</v>
       </c>
       <c r="C346" s="1">
-        <v>120</v>
+        <v>189</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>746</v>
+        <v>726</v>
       </c>
       <c r="E346" s="1" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
@@ -9233,13 +10031,13 @@
         <v>3</v>
       </c>
       <c r="C347" s="1">
-        <v>184</v>
+        <v>120</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="E347" s="1" t="s">
-        <v>749</v>
+        <v>719</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.25">
@@ -9250,13 +10048,13 @@
         <v>3</v>
       </c>
       <c r="C348" s="1">
-        <v>83</v>
+        <v>184</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="E348" s="1" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.25">
@@ -9267,13 +10065,13 @@
         <v>3</v>
       </c>
       <c r="C349" s="1">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="E349" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.25">
@@ -9284,13 +10082,13 @@
         <v>3</v>
       </c>
       <c r="C350" s="1">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>753</v>
+        <v>732</v>
       </c>
       <c r="E350" s="1" t="s">
-        <v>754</v>
+        <v>717</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.25">
@@ -9301,13 +10099,13 @@
         <v>3</v>
       </c>
       <c r="C351" s="1">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="E351" s="1" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.25">
@@ -9318,13 +10116,13 @@
         <v>3</v>
       </c>
       <c r="C352" s="1">
-        <v>33</v>
+        <v>181</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>53</v>
+        <v>736</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.25">
@@ -9335,10 +10133,10 @@
         <v>3</v>
       </c>
       <c r="C353" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>758</v>
+        <v>737</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>53</v>
@@ -9352,13 +10150,13 @@
         <v>3</v>
       </c>
       <c r="C354" s="1">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>759</v>
+        <v>738</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>751</v>
+        <v>53</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.25">
@@ -9369,13 +10167,13 @@
         <v>3</v>
       </c>
       <c r="C355" s="1">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>760</v>
+        <v>739</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.25">
@@ -9386,13 +10184,13 @@
         <v>3</v>
       </c>
       <c r="C356" s="1">
-        <v>188</v>
+        <v>30</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>761</v>
+        <v>740</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>762</v>
+        <v>717</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.25">
@@ -9403,13 +10201,13 @@
         <v>3</v>
       </c>
       <c r="C357" s="1">
-        <v>167</v>
+        <v>188</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.25">
@@ -9420,13 +10218,13 @@
         <v>3</v>
       </c>
       <c r="C358" s="1">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>766</v>
+        <v>744</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.25">
@@ -9437,13 +10235,13 @@
         <v>3</v>
       </c>
       <c r="C359" s="1">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>767</v>
+        <v>745</v>
       </c>
       <c r="E359" s="1" t="s">
-        <v>53</v>
+        <v>746</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.25">
@@ -9454,13 +10252,13 @@
         <v>3</v>
       </c>
       <c r="C360" s="1">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>768</v>
+        <v>747</v>
       </c>
       <c r="E360" s="1" t="s">
-        <v>751</v>
+        <v>53</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.25">
@@ -9471,13 +10269,13 @@
         <v>3</v>
       </c>
       <c r="C361" s="1">
-        <v>121</v>
+        <v>168</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>769</v>
+        <v>748</v>
       </c>
       <c r="E361" s="1" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.25">
@@ -9488,13 +10286,13 @@
         <v>3</v>
       </c>
       <c r="C362" s="1">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>770</v>
+        <v>749</v>
       </c>
       <c r="E362" s="1" t="s">
-        <v>737</v>
+        <v>719</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.25">
@@ -9505,13 +10303,13 @@
         <v>3</v>
       </c>
       <c r="C363" s="1">
-        <v>186</v>
+        <v>31</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>771</v>
+        <v>750</v>
       </c>
       <c r="E363" s="1" t="s">
-        <v>772</v>
+        <v>717</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.25">
@@ -9522,13 +10320,13 @@
         <v>3</v>
       </c>
       <c r="C364" s="1">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="E364" s="1" t="s">
-        <v>774</v>
+        <v>752</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.25">
@@ -9539,13 +10337,13 @@
         <v>3</v>
       </c>
       <c r="C365" s="1">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>775</v>
+        <v>753</v>
       </c>
       <c r="E365" s="1" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.25">
@@ -9556,13 +10354,13 @@
         <v>3</v>
       </c>
       <c r="C366" s="1">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>776</v>
+        <v>755</v>
       </c>
       <c r="E366" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
@@ -9573,13 +10371,13 @@
         <v>3</v>
       </c>
       <c r="C367" s="1">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="E367" s="1" t="s">
-        <v>772</v>
+        <v>717</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
@@ -9590,13 +10388,13 @@
         <v>3</v>
       </c>
       <c r="C368" s="1">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>778</v>
+        <v>757</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>737</v>
+        <v>752</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.25">
@@ -9604,16 +10402,16 @@
         <v>4</v>
       </c>
       <c r="B369" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C369" s="1">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>779</v>
+        <v>758</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>635</v>
+        <v>717</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
@@ -9624,13 +10422,13 @@
         <v>4</v>
       </c>
       <c r="C370" s="1">
-        <v>280</v>
+        <v>37</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>780</v>
+        <v>759</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>781</v>
+        <v>615</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.25">
@@ -9641,13 +10439,13 @@
         <v>4</v>
       </c>
       <c r="C371" s="1">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>782</v>
+        <v>760</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>635</v>
+        <v>761</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.25">
@@ -9658,13 +10456,13 @@
         <v>4</v>
       </c>
       <c r="C372" s="1">
-        <v>61</v>
+        <v>233</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>783</v>
+        <v>762</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.25">
@@ -9675,13 +10473,13 @@
         <v>4</v>
       </c>
       <c r="C373" s="1">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>784</v>
+        <v>763</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
@@ -9692,13 +10490,13 @@
         <v>4</v>
       </c>
       <c r="C374" s="1">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>785</v>
+        <v>764</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.25">
@@ -9709,13 +10507,13 @@
         <v>4</v>
       </c>
       <c r="C375" s="1">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>786</v>
+        <v>765</v>
       </c>
       <c r="E375" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.25">
@@ -9726,13 +10524,13 @@
         <v>4</v>
       </c>
       <c r="C376" s="1">
-        <v>157</v>
+        <v>220</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>787</v>
+        <v>766</v>
       </c>
       <c r="E376" s="1" t="s">
-        <v>788</v>
+        <v>615</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.25">
@@ -9743,13 +10541,13 @@
         <v>4</v>
       </c>
       <c r="C377" s="1">
-        <v>71</v>
+        <v>157</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="E377" s="1" t="s">
-        <v>635</v>
+        <v>768</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
@@ -9757,16 +10555,16 @@
         <v>4</v>
       </c>
       <c r="B378" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C378" s="1">
-        <v>1042</v>
+        <v>71</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>790</v>
+        <v>769</v>
       </c>
       <c r="E378" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.25">
@@ -9777,13 +10575,13 @@
         <v>5</v>
       </c>
       <c r="C379" s="1">
-        <v>223</v>
+        <v>1042</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>791</v>
+        <v>770</v>
       </c>
       <c r="E379" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
@@ -9794,13 +10592,13 @@
         <v>5</v>
       </c>
       <c r="C380" s="1">
-        <v>93</v>
+        <v>223</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>616</v>
+        <v>771</v>
       </c>
       <c r="E380" s="1" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
@@ -9811,13 +10609,13 @@
         <v>5</v>
       </c>
       <c r="C381" s="1">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>792</v>
+        <v>596</v>
       </c>
       <c r="E381" s="1" t="s">
-        <v>635</v>
+        <v>585</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.25">
@@ -9828,13 +10626,13 @@
         <v>5</v>
       </c>
       <c r="C382" s="1">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>793</v>
+        <v>772</v>
       </c>
       <c r="E382" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.25">
@@ -9845,13 +10643,13 @@
         <v>5</v>
       </c>
       <c r="C383" s="1">
-        <v>1079</v>
+        <v>74</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>794</v>
+        <v>773</v>
       </c>
       <c r="E383" s="1" t="s">
-        <v>635</v>
+        <v>615</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.25">
@@ -9862,1186 +10660,1186 @@
         <v>5</v>
       </c>
       <c r="C384" s="1">
-        <v>154</v>
+        <v>1079</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>374</v>
+        <v>774</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>20</v>
+        <v>615</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
+        <v>4</v>
+      </c>
+      <c r="B385" s="1">
         <v>5</v>
       </c>
-      <c r="B385" s="1">
-        <v>1</v>
-      </c>
       <c r="C385" s="1">
-        <v>300021344</v>
+        <v>154</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>795</v>
+        <v>374</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>796</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B386" s="1">
         <v>1</v>
       </c>
       <c r="C386" s="1">
-        <v>300021396</v>
+        <v>300021344</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B387" s="1">
         <v>1</v>
       </c>
       <c r="C387" s="1">
-        <v>300256551</v>
+        <v>300021396</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B388" s="1">
         <v>1</v>
       </c>
       <c r="C388" s="1">
-        <v>300020254</v>
+        <v>300256551</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>801</v>
+        <v>779</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>802</v>
+        <v>780</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B389" s="1">
         <v>1</v>
       </c>
       <c r="C389" s="1">
-        <v>300021340</v>
+        <v>300020254</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>803</v>
+        <v>781</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B390" s="1">
         <v>1</v>
       </c>
       <c r="C390" s="1">
-        <v>300256550</v>
+        <v>300021340</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B391" s="1">
         <v>1</v>
       </c>
       <c r="C391" s="1">
-        <v>300021336</v>
+        <v>300256550</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>807</v>
+        <v>785</v>
       </c>
       <c r="E391" s="1" t="s">
-        <v>808</v>
+        <v>786</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B392" s="1">
         <v>1</v>
       </c>
       <c r="C392" s="1">
-        <v>300044836</v>
+        <v>300021336</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>809</v>
+        <v>787</v>
       </c>
       <c r="E392" s="1" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B393" s="1">
         <v>1</v>
       </c>
       <c r="C393" s="1">
-        <v>300020266</v>
+        <v>300044836</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>810</v>
+        <v>789</v>
       </c>
       <c r="E393" s="1" t="s">
-        <v>811</v>
+        <v>778</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B394" s="1">
         <v>1</v>
       </c>
       <c r="C394" s="1">
-        <v>300021250</v>
+        <v>300020266</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>812</v>
+        <v>790</v>
       </c>
       <c r="E394" s="1" t="s">
-        <v>643</v>
+        <v>791</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B395" s="1">
         <v>1</v>
       </c>
       <c r="C395" s="1">
-        <v>300021348</v>
+        <v>300021250</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>813</v>
+        <v>792</v>
       </c>
       <c r="E395" s="1" t="s">
-        <v>796</v>
+        <v>623</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B396" s="1">
         <v>1</v>
       </c>
       <c r="C396" s="1">
-        <v>300021398</v>
+        <v>300021348</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>814</v>
+        <v>793</v>
       </c>
       <c r="E396" s="1" t="s">
-        <v>802</v>
+        <v>776</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B397" s="1">
         <v>1</v>
       </c>
       <c r="C397" s="1">
-        <v>300045558</v>
+        <v>300021398</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>815</v>
+        <v>794</v>
       </c>
       <c r="E397" s="1" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B398" s="1">
         <v>1</v>
       </c>
       <c r="C398" s="1">
-        <v>300021342</v>
+        <v>300045558</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>817</v>
+        <v>795</v>
       </c>
       <c r="E398" s="1" t="s">
-        <v>818</v>
+        <v>796</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B399" s="1">
         <v>1</v>
       </c>
       <c r="C399" s="1">
-        <v>300050026</v>
+        <v>300021342</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>819</v>
+        <v>797</v>
       </c>
       <c r="E399" s="1" t="s">
-        <v>820</v>
+        <v>798</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B400" s="1">
         <v>1</v>
       </c>
       <c r="C400" s="1">
-        <v>300021251</v>
+        <v>300050026</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>821</v>
+        <v>799</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B401" s="1">
         <v>1</v>
       </c>
       <c r="C401" s="1">
-        <v>300256549</v>
+        <v>300021251</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>822</v>
+        <v>801</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>823</v>
+        <v>778</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B402" s="1">
         <v>1</v>
       </c>
       <c r="C402" s="1">
-        <v>300044837</v>
+        <v>300256549</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>824</v>
+        <v>802</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B403" s="1">
         <v>1</v>
       </c>
       <c r="C403" s="1">
-        <v>300021268</v>
+        <v>300044837</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>825</v>
+        <v>804</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>826</v>
+        <v>778</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B404" s="1">
         <v>1</v>
       </c>
       <c r="C404" s="1">
-        <v>300021338</v>
+        <v>300021268</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>827</v>
+        <v>805</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>818</v>
+        <v>806</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B405" s="1">
         <v>1</v>
       </c>
       <c r="C405" s="1">
-        <v>300044842</v>
+        <v>300021338</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>828</v>
+        <v>807</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B406" s="1">
         <v>1</v>
       </c>
       <c r="C406" s="1">
-        <v>300058631</v>
+        <v>300044842</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>829</v>
+        <v>808</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B407" s="1">
         <v>1</v>
       </c>
       <c r="C407" s="1">
-        <v>300283039</v>
+        <v>300058631</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>831</v>
+        <v>809</v>
       </c>
       <c r="E407" s="1" t="s">
-        <v>802</v>
+        <v>810</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B408" s="1">
         <v>1</v>
       </c>
       <c r="C408" s="1">
-        <v>300021380</v>
+        <v>300283039</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>832</v>
+        <v>811</v>
       </c>
       <c r="E408" s="1" t="s">
-        <v>643</v>
+        <v>782</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B409" s="1">
         <v>1</v>
       </c>
       <c r="C409" s="1">
-        <v>300021258</v>
+        <v>300021380</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>833</v>
+        <v>812</v>
       </c>
       <c r="E409" s="1" t="s">
-        <v>802</v>
+        <v>623</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B410" s="1">
         <v>1</v>
       </c>
       <c r="C410" s="1">
-        <v>300044839</v>
+        <v>300021258</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>834</v>
+        <v>813</v>
       </c>
       <c r="E410" s="1" t="s">
-        <v>835</v>
+        <v>782</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B411" s="1">
         <v>1</v>
       </c>
       <c r="C411" s="1">
-        <v>300020252</v>
+        <v>300044839</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>836</v>
+        <v>814</v>
       </c>
       <c r="E411" s="1" t="s">
-        <v>802</v>
+        <v>815</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B412" s="1">
         <v>1</v>
       </c>
       <c r="C412" s="1">
-        <v>300021300</v>
+        <v>300020252</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>837</v>
+        <v>816</v>
       </c>
       <c r="E412" s="1" t="s">
-        <v>838</v>
+        <v>782</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B413" s="1">
         <v>1</v>
       </c>
       <c r="C413" s="1">
-        <v>300283037</v>
+        <v>300021300</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="E413" s="1" t="s">
-        <v>840</v>
+        <v>818</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B414" s="1">
         <v>1</v>
       </c>
       <c r="C414" s="1">
-        <v>300021382</v>
+        <v>300283037</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="E414" s="1" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B415" s="1">
         <v>1</v>
       </c>
       <c r="C415" s="1">
-        <v>300283038</v>
+        <v>300021382</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>843</v>
+        <v>821</v>
       </c>
       <c r="E415" s="1" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B416" s="1">
         <v>1</v>
       </c>
       <c r="C416" s="1">
-        <v>300049867</v>
+        <v>300283038</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>844</v>
+        <v>823</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>845</v>
+        <v>815</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B417" s="1">
         <v>1</v>
       </c>
       <c r="C417" s="1">
-        <v>300044841</v>
+        <v>300049867</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>846</v>
+        <v>824</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>847</v>
+        <v>825</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B418" s="1">
         <v>1</v>
       </c>
       <c r="C418" s="1">
-        <v>300021388</v>
+        <v>300044841</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>848</v>
+        <v>826</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>798</v>
+        <v>827</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B419" s="1">
         <v>1</v>
       </c>
       <c r="C419" s="1">
-        <v>300283040</v>
+        <v>300021388</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>849</v>
+        <v>828</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>850</v>
+        <v>778</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B420" s="1">
         <v>1</v>
       </c>
       <c r="C420" s="1">
-        <v>300058632</v>
+        <v>300283040</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>851</v>
+        <v>829</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>851</v>
+        <v>830</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B421" s="1">
         <v>1</v>
       </c>
       <c r="C421" s="1">
-        <v>300283036</v>
+        <v>300058632</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>852</v>
+        <v>831</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>853</v>
+        <v>831</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B422" s="1">
         <v>1</v>
       </c>
       <c r="C422" s="1">
-        <v>300056298</v>
+        <v>300283036</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>854</v>
+        <v>832</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>855</v>
+        <v>833</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B423" s="1">
         <v>1</v>
       </c>
       <c r="C423" s="1">
-        <v>300283041</v>
+        <v>300056298</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>856</v>
+        <v>834</v>
       </c>
       <c r="E423" s="1" t="s">
-        <v>857</v>
+        <v>835</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B424" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C424" s="1">
-        <v>300021280</v>
+        <v>300283041</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>858</v>
+        <v>836</v>
       </c>
       <c r="E424" s="1" t="s">
-        <v>859</v>
+        <v>837</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B425" s="1">
         <v>2</v>
       </c>
       <c r="C425" s="1">
-        <v>300056549</v>
+        <v>300021280</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>860</v>
+        <v>838</v>
       </c>
       <c r="E425" s="1" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B426" s="1">
         <v>2</v>
       </c>
       <c r="C426" s="1">
-        <v>300021390</v>
+        <v>300056549</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>861</v>
+        <v>840</v>
       </c>
       <c r="E426" s="1" t="s">
-        <v>862</v>
+        <v>776</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B427" s="1">
         <v>2</v>
       </c>
       <c r="C427" s="1">
-        <v>300021272</v>
+        <v>300021390</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>863</v>
+        <v>841</v>
       </c>
       <c r="E427" s="1" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B428" s="1">
         <v>2</v>
       </c>
       <c r="C428" s="1">
-        <v>300044843</v>
+        <v>300021272</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>865</v>
+        <v>843</v>
       </c>
       <c r="E428" s="1" t="s">
-        <v>862</v>
+        <v>844</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B429" s="1">
         <v>2</v>
       </c>
       <c r="C429" s="1">
-        <v>300021298</v>
+        <v>300044843</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>866</v>
+        <v>845</v>
       </c>
       <c r="E429" s="1" t="s">
-        <v>867</v>
+        <v>842</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B430" s="1">
         <v>2</v>
       </c>
       <c r="C430" s="1">
-        <v>300021290</v>
+        <v>300021298</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="E430" s="1" t="s">
-        <v>869</v>
+        <v>847</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B431" s="1">
         <v>2</v>
       </c>
       <c r="C431" s="1">
-        <v>300021364</v>
+        <v>300021290</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>870</v>
+        <v>848</v>
       </c>
       <c r="E431" s="1" t="s">
-        <v>871</v>
+        <v>849</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B432" s="1">
         <v>2</v>
       </c>
       <c r="C432" s="1">
-        <v>300021374</v>
+        <v>300021364</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>872</v>
+        <v>850</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>796</v>
+        <v>851</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B433" s="1">
         <v>2</v>
       </c>
       <c r="C433" s="1">
-        <v>300020244</v>
+        <v>300021374</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>873</v>
+        <v>852</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>864</v>
+        <v>776</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B434" s="1">
         <v>2</v>
       </c>
       <c r="C434" s="1">
-        <v>300021314</v>
+        <v>300020244</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>874</v>
+        <v>853</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B435" s="1">
         <v>2</v>
       </c>
       <c r="C435" s="1">
-        <v>300021392</v>
+        <v>300021314</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>875</v>
+        <v>854</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B436" s="1">
         <v>2</v>
       </c>
       <c r="C436" s="1">
-        <v>300021326</v>
+        <v>300021392</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>876</v>
+        <v>855</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>877</v>
+        <v>842</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B437" s="1">
         <v>2</v>
       </c>
       <c r="C437" s="1">
-        <v>300021282</v>
+        <v>300021326</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>878</v>
+        <v>856</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>879</v>
+        <v>857</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B438" s="1">
         <v>2</v>
       </c>
       <c r="C438" s="1">
-        <v>300049864</v>
+        <v>300021282</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>880</v>
+        <v>858</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>881</v>
+        <v>859</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B439" s="1">
         <v>2</v>
       </c>
       <c r="C439" s="1">
-        <v>300045555</v>
+        <v>300049864</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>882</v>
+        <v>860</v>
       </c>
       <c r="E439" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B440" s="1">
         <v>2</v>
       </c>
       <c r="C440" s="1">
-        <v>300021312</v>
+        <v>300045555</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>883</v>
+        <v>862</v>
       </c>
       <c r="E440" s="1" t="s">
-        <v>879</v>
+        <v>842</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B441" s="1">
         <v>2</v>
       </c>
       <c r="C441" s="1">
-        <v>300021316</v>
+        <v>300021312</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>884</v>
+        <v>863</v>
       </c>
       <c r="E441" s="1" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B442" s="1">
         <v>2</v>
       </c>
       <c r="C442" s="1">
-        <v>300021330</v>
+        <v>300021316</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>885</v>
+        <v>864</v>
       </c>
       <c r="E442" s="1" t="s">
-        <v>886</v>
+        <v>857</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B443" s="1">
         <v>2</v>
       </c>
       <c r="C443" s="1">
-        <v>300021294</v>
+        <v>300021330</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>887</v>
+        <v>865</v>
       </c>
       <c r="E443" s="1" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B444" s="1">
         <v>2</v>
       </c>
       <c r="C444" s="1">
-        <v>300212457</v>
+        <v>300021294</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="E444" s="1" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B445" s="1">
         <v>2</v>
       </c>
       <c r="C445" s="1">
-        <v>300021372</v>
+        <v>300212457</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>890</v>
+        <v>868</v>
       </c>
       <c r="E445" s="1" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B446" s="1">
         <v>2</v>
       </c>
       <c r="C446" s="1">
-        <v>300021308</v>
+        <v>300021372</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="E446" s="1" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B447" s="1">
         <v>2</v>
       </c>
       <c r="C447" s="1">
-        <v>300044840</v>
+        <v>300021308</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="E447" s="1" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B448" s="1">
         <v>2</v>
       </c>
       <c r="C448" s="1">
-        <v>300212459</v>
+        <v>300044840</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>894</v>
+        <v>873</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>895</v>
+        <v>857</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B449" s="1">
         <v>2</v>
       </c>
       <c r="C449" s="1">
-        <v>300021334</v>
+        <v>300212459</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B450" s="1">
         <v>2</v>
       </c>
       <c r="C450" s="1">
-        <v>300021384</v>
+        <v>300021334</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>897</v>
+        <v>876</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B451" s="1">
         <v>2</v>
       </c>
       <c r="C451" s="1">
-        <v>300045536</v>
+        <v>300021384</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>898</v>
+        <v>877</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>899</v>
+        <v>847</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B452" s="1">
         <v>2</v>
       </c>
       <c r="C452" s="1">
-        <v>300050151</v>
+        <v>300045536</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B453" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C453" s="1">
-        <v>45</v>
+        <v>300050151</v>
       </c>
       <c r="D453" s="1" t="s">
-        <v>902</v>
+        <v>880</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>903</v>
+        <v>881</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.25">
@@ -11052,13 +11850,13 @@
         <v>1</v>
       </c>
       <c r="C454" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D454" s="1" t="s">
-        <v>904</v>
+        <v>882</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>905</v>
+        <v>883</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.25">
@@ -11069,13 +11867,13 @@
         <v>1</v>
       </c>
       <c r="C455" s="1">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="D455" s="1" t="s">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="E455" s="1" t="s">
-        <v>903</v>
+        <v>885</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.25">
@@ -11086,13 +11884,13 @@
         <v>1</v>
       </c>
       <c r="C456" s="1">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="D456" s="1" t="s">
-        <v>907</v>
+        <v>886</v>
       </c>
       <c r="E456" s="1" t="s">
-        <v>908</v>
+        <v>883</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.25">
@@ -11103,13 +11901,13 @@
         <v>1</v>
       </c>
       <c r="C457" s="1">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D457" s="1" t="s">
-        <v>909</v>
+        <v>887</v>
       </c>
       <c r="E457" s="1" t="s">
-        <v>910</v>
+        <v>888</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.25">
@@ -11120,13 +11918,13 @@
         <v>1</v>
       </c>
       <c r="C458" s="1">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="D458" s="1" t="s">
-        <v>911</v>
+        <v>889</v>
       </c>
       <c r="E458" s="1" t="s">
-        <v>903</v>
+        <v>890</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.25">
@@ -11137,13 +11935,13 @@
         <v>1</v>
       </c>
       <c r="C459" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D459" s="1" t="s">
-        <v>912</v>
+        <v>891</v>
       </c>
       <c r="E459" s="1" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.25">
@@ -11154,13 +11952,13 @@
         <v>1</v>
       </c>
       <c r="C460" s="1">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="D460" s="1" t="s">
-        <v>913</v>
+        <v>892</v>
       </c>
       <c r="E460" s="1" t="s">
-        <v>914</v>
+        <v>883</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.25">
@@ -11171,13 +11969,13 @@
         <v>1</v>
       </c>
       <c r="C461" s="1">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D461" s="1" t="s">
-        <v>915</v>
+        <v>893</v>
       </c>
       <c r="E461" s="1" t="s">
-        <v>914</v>
+        <v>894</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.25">
@@ -11188,13 +11986,13 @@
         <v>1</v>
       </c>
       <c r="C462" s="1">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="D462" s="1" t="s">
-        <v>916</v>
+        <v>895</v>
       </c>
       <c r="E462" s="1" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.25">
@@ -11205,13 +12003,13 @@
         <v>1</v>
       </c>
       <c r="C463" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D463" s="1" t="s">
-        <v>918</v>
+        <v>896</v>
       </c>
       <c r="E463" s="1" t="s">
-        <v>919</v>
+        <v>897</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.25">
@@ -11222,13 +12020,13 @@
         <v>1</v>
       </c>
       <c r="C464" s="1">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="D464" s="1" t="s">
-        <v>920</v>
+        <v>898</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>921</v>
+        <v>899</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.25">
@@ -11239,13 +12037,13 @@
         <v>1</v>
       </c>
       <c r="C465" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="D465" s="1" t="s">
-        <v>922</v>
+        <v>900</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>921</v>
+        <v>901</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.25">
@@ -11256,13 +12054,13 @@
         <v>1</v>
       </c>
       <c r="C466" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D466" s="1" t="s">
-        <v>923</v>
+        <v>902</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.25">
@@ -11273,13 +12071,13 @@
         <v>1</v>
       </c>
       <c r="C467" s="1">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="D467" s="1" t="s">
-        <v>924</v>
+        <v>903</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>925</v>
+        <v>883</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.25">
@@ -11290,13 +12088,13 @@
         <v>1</v>
       </c>
       <c r="C468" s="1">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D468" s="1" t="s">
-        <v>926</v>
+        <v>904</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>927</v>
+        <v>905</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.25">
@@ -11307,13 +12105,13 @@
         <v>1</v>
       </c>
       <c r="C469" s="1">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D469" s="1" t="s">
-        <v>928</v>
+        <v>906</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>925</v>
+        <v>907</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.25">
@@ -11324,13 +12122,13 @@
         <v>1</v>
       </c>
       <c r="C470" s="1">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D470" s="1" t="s">
-        <v>929</v>
+        <v>908</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.25">
@@ -11341,13 +12139,13 @@
         <v>1</v>
       </c>
       <c r="C471" s="1">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D471" s="1" t="s">
-        <v>930</v>
+        <v>909</v>
       </c>
       <c r="E471" s="1" t="s">
-        <v>931</v>
+        <v>883</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.25">
@@ -11358,13 +12156,13 @@
         <v>1</v>
       </c>
       <c r="C472" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D472" s="1" t="s">
-        <v>932</v>
+        <v>910</v>
       </c>
       <c r="E472" s="1" t="s">
-        <v>903</v>
+        <v>911</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.25">
@@ -11375,13 +12173,13 @@
         <v>1</v>
       </c>
       <c r="C473" s="1">
-        <v>81</v>
+        <v>10</v>
       </c>
       <c r="D473" s="1" t="s">
-        <v>933</v>
+        <v>912</v>
       </c>
       <c r="E473" s="1" t="s">
-        <v>903</v>
+        <v>883</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.25">
@@ -11392,13 +12190,13 @@
         <v>1</v>
       </c>
       <c r="C474" s="1">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D474" s="1" t="s">
-        <v>934</v>
+        <v>913</v>
       </c>
       <c r="E474" s="1" t="s">
-        <v>935</v>
+        <v>883</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.25">
@@ -11409,13 +12207,13 @@
         <v>1</v>
       </c>
       <c r="C475" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D475" s="1" t="s">
-        <v>848</v>
+        <v>914</v>
       </c>
       <c r="E475" s="1" t="s">
-        <v>936</v>
+        <v>915</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.25">
@@ -11426,13 +12224,13 @@
         <v>1</v>
       </c>
       <c r="C476" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="D476" s="1" t="s">
-        <v>937</v>
+        <v>828</v>
       </c>
       <c r="E476" s="1" t="s">
-        <v>938</v>
+        <v>916</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.25">
@@ -11443,13 +12241,13 @@
         <v>1</v>
       </c>
       <c r="C477" s="1">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D477" s="1" t="s">
-        <v>939</v>
+        <v>917</v>
       </c>
       <c r="E477" s="1" t="s">
-        <v>936</v>
+        <v>918</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.25">
@@ -11460,13 +12258,13 @@
         <v>1</v>
       </c>
       <c r="C478" s="1">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="D478" s="1" t="s">
-        <v>940</v>
+        <v>919</v>
       </c>
       <c r="E478" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.25">
@@ -11477,13 +12275,13 @@
         <v>1</v>
       </c>
       <c r="C479" s="1">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="D479" s="1" t="s">
-        <v>941</v>
+        <v>920</v>
       </c>
       <c r="E479" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.25">
@@ -11494,13 +12292,13 @@
         <v>1</v>
       </c>
       <c r="C480" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D480" s="1" t="s">
-        <v>942</v>
+        <v>921</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>943</v>
+        <v>916</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.25">
@@ -11511,13 +12309,13 @@
         <v>1</v>
       </c>
       <c r="C481" s="1">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D481" s="1" t="s">
-        <v>944</v>
+        <v>922</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>945</v>
+        <v>923</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.25">
@@ -11528,13 +12326,13 @@
         <v>1</v>
       </c>
       <c r="C482" s="1">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="D482" s="1" t="s">
-        <v>946</v>
+        <v>924</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>947</v>
+        <v>925</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.25">
@@ -11545,13 +12343,13 @@
         <v>1</v>
       </c>
       <c r="C483" s="1">
-        <v>86</v>
+        <v>48</v>
       </c>
       <c r="D483" s="1" t="s">
-        <v>948</v>
+        <v>926</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>945</v>
+        <v>927</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.25">
@@ -11562,13 +12360,13 @@
         <v>1</v>
       </c>
       <c r="C484" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D484" s="1" t="s">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.25">
@@ -11579,13 +12377,13 @@
         <v>1</v>
       </c>
       <c r="C485" s="1">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="D485" s="1" t="s">
-        <v>950</v>
+        <v>929</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.25">
@@ -11596,13 +12394,13 @@
         <v>1</v>
       </c>
       <c r="C486" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D486" s="1" t="s">
-        <v>951</v>
+        <v>930</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.25">
@@ -11613,13 +12411,13 @@
         <v>1</v>
       </c>
       <c r="C487" s="1">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="D487" s="1" t="s">
-        <v>952</v>
+        <v>931</v>
       </c>
       <c r="E487" s="1" t="s">
-        <v>953</v>
+        <v>925</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.25">
@@ -11630,13 +12428,13 @@
         <v>1</v>
       </c>
       <c r="C488" s="1">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="D488" s="1" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="E488" s="1" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.25">
@@ -11647,13 +12445,13 @@
         <v>1</v>
       </c>
       <c r="C489" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D489" s="1" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="E489" s="1" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.25">
@@ -11664,13 +12462,13 @@
         <v>1</v>
       </c>
       <c r="C490" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D490" s="1" t="s">
-        <v>957</v>
+        <v>936</v>
       </c>
       <c r="E490" s="1" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.25">
@@ -11681,13 +12479,13 @@
         <v>1</v>
       </c>
       <c r="C491" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D491" s="1" t="s">
-        <v>958</v>
+        <v>937</v>
       </c>
       <c r="E491" s="1" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.25">
@@ -11698,13 +12496,13 @@
         <v>1</v>
       </c>
       <c r="C492" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D492" s="1" t="s">
-        <v>960</v>
+        <v>938</v>
       </c>
       <c r="E492" s="1" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.25">
@@ -11715,13 +12513,13 @@
         <v>1</v>
       </c>
       <c r="C493" s="1">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="D493" s="1" t="s">
-        <v>961</v>
+        <v>940</v>
       </c>
       <c r="E493" s="1" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.25">
@@ -11732,13 +12530,13 @@
         <v>1</v>
       </c>
       <c r="C494" s="1">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="D494" s="1" t="s">
-        <v>962</v>
+        <v>941</v>
       </c>
       <c r="E494" s="1" t="s">
-        <v>963</v>
+        <v>939</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.25">
@@ -11749,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="C495" s="1">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="D495" s="1" t="s">
-        <v>964</v>
+        <v>942</v>
       </c>
       <c r="E495" s="1" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.25">
@@ -11766,13 +12564,13 @@
         <v>1</v>
       </c>
       <c r="C496" s="1">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D496" s="1" t="s">
-        <v>965</v>
+        <v>944</v>
       </c>
       <c r="E496" s="1" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.25">
@@ -11783,13 +12581,13 @@
         <v>1</v>
       </c>
       <c r="C497" s="1">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="D497" s="1" t="s">
-        <v>967</v>
+        <v>945</v>
       </c>
       <c r="E497" s="1" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.25">
@@ -11800,13 +12598,13 @@
         <v>1</v>
       </c>
       <c r="C498" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D498" s="1" t="s">
-        <v>968</v>
+        <v>947</v>
       </c>
       <c r="E498" s="1" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.25">
@@ -11817,13 +12615,13 @@
         <v>1</v>
       </c>
       <c r="C499" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D499" s="1" t="s">
-        <v>969</v>
+        <v>948</v>
       </c>
       <c r="E499" s="1" t="s">
-        <v>970</v>
+        <v>943</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.25">
@@ -11834,13 +12632,13 @@
         <v>1</v>
       </c>
       <c r="C500" s="1">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D500" s="1" t="s">
-        <v>971</v>
+        <v>949</v>
       </c>
       <c r="E500" s="1" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.25">
@@ -11851,13 +12649,13 @@
         <v>1</v>
       </c>
       <c r="C501" s="1">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D501" s="1" t="s">
-        <v>972</v>
+        <v>951</v>
       </c>
       <c r="E501" s="1" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.25">
@@ -11868,13 +12666,13 @@
         <v>1</v>
       </c>
       <c r="C502" s="1">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D502" s="1" t="s">
-        <v>973</v>
+        <v>952</v>
       </c>
       <c r="E502" s="1" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.25">
@@ -11885,13 +12683,13 @@
         <v>1</v>
       </c>
       <c r="C503" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D503" s="1" t="s">
-        <v>974</v>
+        <v>953</v>
       </c>
       <c r="E503" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.25">
@@ -11902,13 +12700,13 @@
         <v>1</v>
       </c>
       <c r="C504" s="1">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="D504" s="1" t="s">
-        <v>975</v>
+        <v>954</v>
       </c>
       <c r="E504" s="1" t="s">
-        <v>976</v>
+        <v>916</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.25">
@@ -11919,13 +12717,13 @@
         <v>1</v>
       </c>
       <c r="C505" s="1">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D505" s="1" t="s">
-        <v>977</v>
+        <v>955</v>
       </c>
       <c r="E505" s="1" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.25">
@@ -11936,13 +12734,13 @@
         <v>1</v>
       </c>
       <c r="C506" s="1">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="D506" s="1" t="s">
-        <v>978</v>
+        <v>957</v>
       </c>
       <c r="E506" s="1" t="s">
-        <v>903</v>
+        <v>956</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.25">
@@ -11953,13 +12751,13 @@
         <v>1</v>
       </c>
       <c r="C507" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D507" s="1" t="s">
-        <v>979</v>
+        <v>958</v>
       </c>
       <c r="E507" s="1" t="s">
-        <v>980</v>
+        <v>883</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.25">
@@ -11970,13 +12768,13 @@
         <v>1</v>
       </c>
       <c r="C508" s="1">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D508" s="1" t="s">
-        <v>981</v>
+        <v>959</v>
       </c>
       <c r="E508" s="1" t="s">
-        <v>982</v>
+        <v>960</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.25">
@@ -11987,13 +12785,13 @@
         <v>1</v>
       </c>
       <c r="C509" s="1">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="D509" s="1" t="s">
-        <v>983</v>
+        <v>961</v>
       </c>
       <c r="E509" s="1" t="s">
-        <v>984</v>
+        <v>962</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.25">
@@ -12004,13 +12802,13 @@
         <v>1</v>
       </c>
       <c r="C510" s="1">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D510" s="1" t="s">
-        <v>985</v>
+        <v>963</v>
       </c>
       <c r="E510" s="1" t="s">
-        <v>986</v>
+        <v>964</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.25">
@@ -12021,13 +12819,13 @@
         <v>1</v>
       </c>
       <c r="C511" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D511" s="1" t="s">
-        <v>987</v>
+        <v>965</v>
       </c>
       <c r="E511" s="1" t="s">
-        <v>988</v>
+        <v>966</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.25">
@@ -12038,13 +12836,30 @@
         <v>1</v>
       </c>
       <c r="C512" s="1">
+        <v>110</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="E512" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A513" s="1">
+        <v>5</v>
+      </c>
+      <c r="B513" s="1">
+        <v>1</v>
+      </c>
+      <c r="C513" s="1">
         <v>118</v>
       </c>
-      <c r="D512" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="E512" s="1" t="s">
-        <v>990</v>
+      <c r="D513" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="E513" s="1" t="s">
+        <v>970</v>
       </c>
     </row>
   </sheetData>
